--- a/Jupyter/simulationID/cim_0326_1234/data/FutureBldgs_polygon.xlsx
+++ b/Jupyter/simulationID/cim_0326_1234/data/FutureBldgs_polygon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/Google Drive/BatYam NY DRIVE/Simulations/March 14 GitHUB/BatYamNY/Jupyter/simulationID/cim_0326_1234/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A186A8-659C-2D45-8433-B0ECE73479E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF368B4-5CB9-F848-9D9B-30C4204ED087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35220" yWindow="-2680" windowWidth="33380" windowHeight="15660" xr2:uid="{265F690D-B5FF-2E4B-BA8D-A4AE3F139D7C}"/>
+    <workbookView xWindow="33820" yWindow="-2680" windowWidth="33380" windowHeight="15660" xr2:uid="{265F690D-B5FF-2E4B-BA8D-A4AE3F139D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection sqref="A1:AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -713,6 +713,7 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
